--- a/Avatar.xlsx
+++ b/Avatar.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="84">
   <si>
     <r>
       <t>avatar24</t>
@@ -264,7 +264,7 @@
   </si>
   <si>
     <t>avataru</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -314,7 +314,7 @@
   </si>
   <si>
     <t>avatar_default</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -585,7 +585,7 @@
   </si>
   <si>
     <t>avatar04</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -602,35 +602,497 @@
       </rPr>
       <t>00</t>
     </r>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>avatar02</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>新旧头像对照</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>新头像</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>本地文件名(新)</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>本地文件名(旧)</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>显示顺序</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>服务器编号</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>go2本地文件名(旧)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>go2本地文件名(新)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>app文件名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>app原有头像</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>DEFAULT_</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>11</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.160</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>DEFAULT_</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>12</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.160</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>DEFAULT_</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>13</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.160</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>DEFAULT_</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>14</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.160</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>DEFAULT_</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>15</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.160</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>DEFAULT_</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>16</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.160</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>DEFAULT_</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>17</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.160</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>DEFAULT_</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>18</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.160</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>DEFAULT_</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>19</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.160</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>DEFAULT_</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>20</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.160</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>DEFAULT_</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>21</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.160</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>DEFAULT_</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>22</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.160</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>DEFAULT_</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>23</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.160</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>DEFAULT_</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>24</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.160</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DEFAULT_10.160</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DEFAULT_1.160</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DEFAULT_2.160</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DEFAULT_3.160</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DEFAULT_4.160</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DEFAULT_5.160</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DEFAULT_6.160</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DEFAULT_7.160</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DEFAULT_8.160</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DEFAULT_09.160</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>app新头像</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>代码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -648,14 +1110,6 @@
     </font>
     <font>
       <sz val="9"/>
-      <name val="宋体"/>
-      <family val="2"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <family val="2"/>
       <charset val="134"/>
@@ -708,13 +1162,28 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -730,38 +1199,47 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -847,14 +1325,14 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>314325</xdr:colOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>323851</xdr:colOff>
       <xdr:row>26</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
@@ -874,8 +1352,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="11496675" y="171450"/>
-          <a:ext cx="990600" cy="4381500"/>
+          <a:off x="12468225" y="152400"/>
+          <a:ext cx="1304926" cy="4381500"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -894,14 +1372,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>180975</xdr:colOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>190499</xdr:colOff>
       <xdr:row>27</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
@@ -921,8 +1399,102 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="3381375" y="171450"/>
-          <a:ext cx="6943725" cy="4457700"/>
+          <a:off x="5029200" y="152400"/>
+          <a:ext cx="6943724" cy="4457700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>11206</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>333936</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>135031</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1026" name="Picture 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="12468225" y="5307106"/>
+          <a:ext cx="5734611" cy="2695575"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1025" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="5029200" y="5295900"/>
+          <a:ext cx="8448675" cy="3971925"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1227,46 +1799,56 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R28"/>
+  <dimension ref="A1:V31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A28" sqref="A28"/>
+      <selection pane="bottomRight" activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="12.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.5" style="1" customWidth="1"/>
-    <col min="3" max="4" width="15" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="17" width="8.875" style="1"/>
-    <col min="18" max="18" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="8.875" style="1"/>
+    <col min="1" max="1" width="6.75" style="1" customWidth="1"/>
+    <col min="2" max="2" width="5.125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="9.5" style="1" customWidth="1"/>
+    <col min="4" max="4" width="9.25" style="1" customWidth="1"/>
+    <col min="5" max="5" width="15.625" style="1" customWidth="1"/>
+    <col min="6" max="7" width="8.875" style="1"/>
+    <col min="8" max="8" width="22.125" style="1" customWidth="1"/>
+    <col min="9" max="19" width="8.875" style="1"/>
+    <col min="20" max="20" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="8.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" s="7" customFormat="1" ht="12">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:20" s="9" customFormat="1" ht="33" customHeight="1">
+      <c r="A1" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="D1" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="B1" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="C1" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="D1" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="F1" s="7" t="s">
+      <c r="E1" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="I1" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="R1" s="7" t="s">
+      <c r="T1" s="9" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="2" spans="1:18">
+    <row r="2" spans="1:20">
       <c r="A2" s="2">
         <v>0</v>
       </c>
@@ -1279,8 +1861,15 @@
       <c r="D2" s="3" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="3" spans="1:18">
+      <c r="E2" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="F2" s="1" t="str">
+        <f>"avatarConfig.Add("""&amp;E2&amp;""", "&amp;B2&amp;");"</f>
+        <v>avatarConfig.Add("DEFAULT_10.160", 0);</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="2">
         <v>1</v>
       </c>
@@ -1293,8 +1882,15 @@
       <c r="D3" s="3" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="4" spans="1:18">
+      <c r="E3" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="F3" s="1" t="str">
+        <f t="shared" ref="F3:F26" si="0">"avatarConfig.Add("""&amp;E3&amp;""", "&amp;B3&amp;");"</f>
+        <v>avatarConfig.Add("DEFAULT_1.160", 1);</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="2">
         <v>2</v>
       </c>
@@ -1307,8 +1903,15 @@
       <c r="D4" s="3" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="5" spans="1:18">
+      <c r="E4" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="F4" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>avatarConfig.Add("DEFAULT_2.160", 2);</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="2">
         <v>3</v>
       </c>
@@ -1321,8 +1924,15 @@
       <c r="D5" s="3" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="6" spans="1:18">
+      <c r="E5" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="F5" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>avatarConfig.Add("DEFAULT_3.160", 3);</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="2">
         <v>4</v>
       </c>
@@ -1335,8 +1945,15 @@
       <c r="D6" s="3" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="7" spans="1:18">
+      <c r="E6" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="F6" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>avatarConfig.Add("DEFAULT_4.160", 4);</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="2">
         <v>5</v>
       </c>
@@ -1349,8 +1966,15 @@
       <c r="D7" s="3" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="8" spans="1:18">
+      <c r="E7" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="F7" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>avatarConfig.Add("DEFAULT_5.160", 5);</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="2">
         <v>6</v>
       </c>
@@ -1363,8 +1987,15 @@
       <c r="D8" s="3" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="9" spans="1:18">
+      <c r="E8" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="F8" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>avatarConfig.Add("DEFAULT_6.160", 6);</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="2">
         <v>7</v>
       </c>
@@ -1377,8 +2008,15 @@
       <c r="D9" s="3" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="10" spans="1:18">
+      <c r="E9" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="F9" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>avatarConfig.Add("DEFAULT_7.160", 7);</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="2">
         <v>8</v>
       </c>
@@ -1391,8 +2029,15 @@
       <c r="D10" s="3" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="11" spans="1:18">
+      <c r="E10" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="F10" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>avatarConfig.Add("DEFAULT_8.160", 8);</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="2">
         <v>9</v>
       </c>
@@ -1405,8 +2050,15 @@
       <c r="D11" s="3" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="12" spans="1:18">
+      <c r="E11" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="F11" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>avatarConfig.Add("DEFAULT_09.160", 9);</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="2">
         <v>10</v>
       </c>
@@ -1419,13 +2071,18 @@
       <c r="D12" s="3" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" s="4" customFormat="1">
-      <c r="A13" s="6">
+      <c r="E12" s="8"/>
+      <c r="F12" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>avatarConfig.Add("", 99);</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" s="4" customFormat="1">
+      <c r="A13" s="5">
         <v>11</v>
       </c>
       <c r="B13" s="5">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>27</v>
@@ -1433,13 +2090,22 @@
       <c r="D13" s="3" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" s="4" customFormat="1">
-      <c r="A14" s="6">
+      <c r="E13" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="F13" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>avatarConfig.Add("DEFAULT_11.160", 11);</v>
+      </c>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+    </row>
+    <row r="14" spans="1:20" s="4" customFormat="1">
+      <c r="A14" s="5">
         <v>12</v>
       </c>
       <c r="B14" s="5">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>25</v>
@@ -1447,13 +2113,22 @@
       <c r="D14" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="15" spans="1:18" s="4" customFormat="1">
-      <c r="A15" s="6">
+      <c r="E14" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="F14" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>avatarConfig.Add("DEFAULT_12.160", 12);</v>
+      </c>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+    </row>
+    <row r="15" spans="1:20" s="4" customFormat="1">
+      <c r="A15" s="5">
         <v>13</v>
       </c>
       <c r="B15" s="5">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>23</v>
@@ -1461,13 +2136,22 @@
       <c r="D15" s="3" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" s="4" customFormat="1">
-      <c r="A16" s="6">
+      <c r="E15" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="F15" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>avatarConfig.Add("DEFAULT_13.160", 13);</v>
+      </c>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+    </row>
+    <row r="16" spans="1:20" s="4" customFormat="1">
+      <c r="A16" s="5">
         <v>14</v>
       </c>
       <c r="B16" s="5">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>21</v>
@@ -1475,13 +2159,22 @@
       <c r="D16" s="3" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" s="4" customFormat="1">
-      <c r="A17" s="6">
+      <c r="E16" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="F16" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>avatarConfig.Add("DEFAULT_14.160", 14);</v>
+      </c>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+    </row>
+    <row r="17" spans="1:22" s="4" customFormat="1">
+      <c r="A17" s="5">
         <v>15</v>
       </c>
       <c r="B17" s="5">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C17" s="4" t="s">
         <v>19</v>
@@ -1489,13 +2182,22 @@
       <c r="D17" s="3" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" s="4" customFormat="1">
-      <c r="A18" s="6">
+      <c r="E17" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="F17" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>avatarConfig.Add("DEFAULT_15.160", 15);</v>
+      </c>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+    </row>
+    <row r="18" spans="1:22" s="4" customFormat="1">
+      <c r="A18" s="5">
         <v>16</v>
       </c>
       <c r="B18" s="5">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C18" s="4" t="s">
         <v>17</v>
@@ -1503,13 +2205,22 @@
       <c r="D18" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" s="4" customFormat="1">
-      <c r="A19" s="6">
+      <c r="E18" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="F18" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>avatarConfig.Add("DEFAULT_16.160", 16);</v>
+      </c>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+    </row>
+    <row r="19" spans="1:22" s="4" customFormat="1">
+      <c r="A19" s="5">
         <v>17</v>
       </c>
       <c r="B19" s="5">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C19" s="4" t="s">
         <v>15</v>
@@ -1517,13 +2228,22 @@
       <c r="D19" s="3" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" s="4" customFormat="1">
-      <c r="A20" s="6">
+      <c r="E19" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="F19" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>avatarConfig.Add("DEFAULT_17.160", 17);</v>
+      </c>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+    </row>
+    <row r="20" spans="1:22" s="4" customFormat="1">
+      <c r="A20" s="5">
         <v>18</v>
       </c>
       <c r="B20" s="5">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C20" s="4" t="s">
         <v>13</v>
@@ -1531,13 +2251,22 @@
       <c r="D20" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" s="4" customFormat="1">
-      <c r="A21" s="6">
+      <c r="E20" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="F20" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>avatarConfig.Add("DEFAULT_18.160", 18);</v>
+      </c>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
+    </row>
+    <row r="21" spans="1:22" s="4" customFormat="1">
+      <c r="A21" s="5">
         <v>19</v>
       </c>
       <c r="B21" s="5">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C21" s="4" t="s">
         <v>11</v>
@@ -1545,13 +2274,22 @@
       <c r="D21" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" s="4" customFormat="1">
-      <c r="A22" s="6">
+      <c r="E21" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="F21" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>avatarConfig.Add("DEFAULT_19.160", 19);</v>
+      </c>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
+    </row>
+    <row r="22" spans="1:22" s="4" customFormat="1">
+      <c r="A22" s="5">
         <v>20</v>
       </c>
       <c r="B22" s="5">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C22" s="4" t="s">
         <v>9</v>
@@ -1559,13 +2297,22 @@
       <c r="D22" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="23" spans="1:4">
-      <c r="A23" s="6">
+      <c r="E22" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="F22" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>avatarConfig.Add("DEFAULT_20.160", 20);</v>
+      </c>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
+    </row>
+    <row r="23" spans="1:22">
+      <c r="A23" s="5">
         <v>21</v>
       </c>
       <c r="B23" s="5">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C23" s="4" t="s">
         <v>7</v>
@@ -1573,13 +2320,20 @@
       <c r="D23" s="3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="24" spans="1:4">
-      <c r="A24" s="6">
+      <c r="E23" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="F23" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>avatarConfig.Add("DEFAULT_21.160", 21);</v>
+      </c>
+    </row>
+    <row r="24" spans="1:22">
+      <c r="A24" s="5">
         <v>22</v>
       </c>
       <c r="B24" s="5">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C24" s="4" t="s">
         <v>5</v>
@@ -1587,13 +2341,20 @@
       <c r="D24" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="25" spans="1:4">
-      <c r="A25" s="6">
+      <c r="E24" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="F24" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>avatarConfig.Add("DEFAULT_22.160", 22);</v>
+      </c>
+    </row>
+    <row r="25" spans="1:22">
+      <c r="A25" s="5">
         <v>23</v>
       </c>
       <c r="B25" s="5">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C25" s="4" t="s">
         <v>3</v>
@@ -1601,13 +2362,20 @@
       <c r="D25" s="3" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="26" spans="1:4">
-      <c r="A26" s="6">
+      <c r="E25" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="F25" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>avatarConfig.Add("DEFAULT_23.160", 23);</v>
+      </c>
+    </row>
+    <row r="26" spans="1:22">
+      <c r="A26" s="5">
         <v>24</v>
       </c>
       <c r="B26" s="5">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C26" s="4" t="s">
         <v>1</v>
@@ -1615,14 +2383,29 @@
       <c r="D26" s="3" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:4">
+      <c r="E26" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="F26" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>avatarConfig.Add("DEFAULT_24.160", 24);</v>
+      </c>
+    </row>
+    <row r="27" spans="1:22">
       <c r="A27" s="2"/>
       <c r="B27" s="2"/>
     </row>
-    <row r="28" spans="1:4">
+    <row r="28" spans="1:22">
       <c r="A28" s="2"/>
       <c r="B28" s="2"/>
+    </row>
+    <row r="31" spans="1:22">
+      <c r="I31" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="V31" s="6" t="s">
+        <v>57</v>
+      </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:C96"/>

--- a/Avatar.xlsx
+++ b/Avatar.xlsx
@@ -1083,15 +1083,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>DEFAULT_09.160</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>app新头像</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>代码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DEFAULT_9.160</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1250,74 +1250,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
 </file>
 
@@ -1522,7 +1454,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="CCE8CF"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -1805,7 +1737,7 @@
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="J1" sqref="J1"/>
+      <selection pane="bottomRight" activeCell="D12" sqref="D12:E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
@@ -1839,7 +1771,7 @@
         <v>56</v>
       </c>
       <c r="F1" s="9" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I1" s="9" t="s">
         <v>51</v>
@@ -2051,11 +1983,11 @@
         <v>30</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="F11" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>avatarConfig.Add("DEFAULT_09.160", 9);</v>
+        <v>avatarConfig.Add("DEFAULT_9.160", 9);</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -2401,7 +2333,7 @@
     </row>
     <row r="31" spans="1:22">
       <c r="I31" s="6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="V31" s="6" t="s">
         <v>57</v>

--- a/Avatar.xlsx
+++ b/Avatar.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="89">
   <si>
     <r>
       <t>avatar24</t>
@@ -286,33 +286,6 @@
     <t>avatary</t>
   </si>
   <si>
-    <r>
-      <t>avatar</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>10</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t/>
-    </r>
-  </si>
-  <si>
     <t>avatar_default</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -1092,6 +1065,30 @@
   </si>
   <si>
     <t>DEFAULT_9.160</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>代码2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>代码3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>代码4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>代码5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>代码6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>代码7</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1250,6 +1247,74 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -1257,13 +1322,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>19</xdr:col>
+      <xdr:col>24</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
+      <xdr:col>25</xdr:col>
       <xdr:colOff>323851</xdr:colOff>
       <xdr:row>26</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
@@ -1304,13 +1369,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>8</xdr:col>
+      <xdr:col>13</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
+      <xdr:col>23</xdr:col>
       <xdr:colOff>190499</xdr:colOff>
       <xdr:row>27</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -1351,13 +1416,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>21</xdr:col>
+      <xdr:col>26</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
       <xdr:row>31</xdr:row>
       <xdr:rowOff>11206</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>29</xdr:col>
+      <xdr:col>34</xdr:col>
       <xdr:colOff>333936</xdr:colOff>
       <xdr:row>46</xdr:row>
       <xdr:rowOff>135031</xdr:rowOff>
@@ -1398,13 +1463,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>8</xdr:col>
+      <xdr:col>13</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
       <xdr:row>31</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
+      <xdr:col>25</xdr:col>
       <xdr:colOff>28575</xdr:colOff>
       <xdr:row>54</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
@@ -1454,7 +1519,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="CCE8CF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -1731,13 +1796,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:V31"/>
+  <dimension ref="A1:AA31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="D12" sqref="D12:E12"/>
+      <selection pane="bottomRight" activeCell="J2" sqref="J2:J26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
@@ -1747,40 +1812,58 @@
     <col min="3" max="3" width="9.5" style="1" customWidth="1"/>
     <col min="4" max="4" width="9.25" style="1" customWidth="1"/>
     <col min="5" max="5" width="15.625" style="1" customWidth="1"/>
-    <col min="6" max="7" width="8.875" style="1"/>
-    <col min="8" max="8" width="22.125" style="1" customWidth="1"/>
-    <col min="9" max="19" width="8.875" style="1"/>
-    <col min="20" max="20" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="8.875" style="1"/>
+    <col min="6" max="12" width="8.875" style="1"/>
+    <col min="13" max="13" width="22.125" style="1" customWidth="1"/>
+    <col min="14" max="24" width="8.875" style="1"/>
+    <col min="25" max="25" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="8.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" s="9" customFormat="1" ht="33" customHeight="1">
+    <row r="1" spans="1:25" s="9" customFormat="1" ht="33" customHeight="1">
       <c r="A1" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="C1" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="B1" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="C1" s="9" t="s">
+      <c r="D1" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="E1" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="E1" s="10" t="s">
-        <v>56</v>
-      </c>
       <c r="F1" s="9" t="s">
-        <v>82</v>
+        <v>81</v>
+      </c>
+      <c r="G1" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="H1" s="9" t="s">
+        <v>84</v>
       </c>
       <c r="I1" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="T1" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="J1" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="K1" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="L1" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="N1" s="9" t="s">
         <v>50</v>
       </c>
+      <c r="Y1" s="9" t="s">
+        <v>49</v>
+      </c>
     </row>
-    <row r="2" spans="1:20">
+    <row r="2" spans="1:25">
       <c r="A2" s="2">
         <v>0</v>
       </c>
@@ -1788,20 +1871,44 @@
         <v>0</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F2" s="1" t="str">
         <f>"avatarConfig.Add("""&amp;E2&amp;""", "&amp;B2&amp;");"</f>
         <v>avatarConfig.Add("DEFAULT_10.160", 0);</v>
       </c>
+      <c r="G2" s="1" t="str">
+        <f>"PortraitIcons.Add("""&amp;A2&amp;""", SpriteHelper.Instance.LoadTextureFromBuffer(ModuleViews.Expression, this.moduleConfig.GetImagePath(ModuleViews.Expression, """&amp;D2&amp;""")));"</f>
+        <v>PortraitIcons.Add("0", SpriteHelper.Instance.LoadTextureFromBuffer(ModuleViews.Expression, this.moduleConfig.GetImagePath(ModuleViews.Expression, "avatar00")));</v>
+      </c>
+      <c r="H2" s="1" t="str">
+        <f>"portraitIcons.Add("&amp;A2&amp;", SpriteHelper.Instance.LoadTextureFromBuffer(ModuleViews.Expression, ""Texture/Expression/View/"&amp;D2&amp;".png""));"</f>
+        <v>portraitIcons.Add(0, SpriteHelper.Instance.LoadTextureFromBuffer(ModuleViews.Expression, "Texture/Expression/View/avatar00.png"));</v>
+      </c>
+      <c r="I2" s="1" t="str">
+        <f>"var/vault_apk_res/Texture/Expression/View/"&amp;D2&amp;".png"</f>
+        <v>var/vault_apk_res/Texture/Expression/View/avatar00.png</v>
+      </c>
+      <c r="J2" s="1" t="str">
+        <f>"var/vault_apk_res/Texture/MessageInbox/View/"&amp;D2&amp;".png"</f>
+        <v>var/vault_apk_res/Texture/MessageInbox/View/avatar00.png</v>
+      </c>
+      <c r="K2" s="1" t="str">
+        <f>"{ ""file"":"""&amp;I2&amp;""", ""md5"":"""" },"</f>
+        <v>{ "file":"var/vault_apk_res/Texture/Expression/View/avatar00.png", "md5":"" },</v>
+      </c>
+      <c r="L2" s="1" t="str">
+        <f>"{ ""file"":"""&amp;J2&amp;""", ""md5"":"""" },"</f>
+        <v>{ "file":"var/vault_apk_res/Texture/MessageInbox/View/avatar00.png", "md5":"" },</v>
+      </c>
     </row>
-    <row r="3" spans="1:20">
+    <row r="3" spans="1:25">
       <c r="A3" s="2">
         <v>1</v>
       </c>
@@ -1809,20 +1916,44 @@
         <v>1</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F3" s="1" t="str">
         <f t="shared" ref="F3:F26" si="0">"avatarConfig.Add("""&amp;E3&amp;""", "&amp;B3&amp;");"</f>
         <v>avatarConfig.Add("DEFAULT_1.160", 1);</v>
       </c>
+      <c r="G3" s="1" t="str">
+        <f t="shared" ref="G3:G26" si="1">"PortraitIcons.Add("""&amp;A3&amp;""", SpriteHelper.Instance.LoadTextureFromBuffer(ModuleViews.Expression, this.moduleConfig.GetImagePath(ModuleViews.Expression, """&amp;D3&amp;""")));"</f>
+        <v>PortraitIcons.Add("1", SpriteHelper.Instance.LoadTextureFromBuffer(ModuleViews.Expression, this.moduleConfig.GetImagePath(ModuleViews.Expression, "avatar01")));</v>
+      </c>
+      <c r="H3" s="1" t="str">
+        <f t="shared" ref="H3:H26" si="2">"portraitIcons.Add("&amp;A3&amp;", SpriteHelper.Instance.LoadTextureFromBuffer(ModuleViews.Expression, ""Texture/Expression/View/"&amp;D3&amp;".png""));"</f>
+        <v>portraitIcons.Add(1, SpriteHelper.Instance.LoadTextureFromBuffer(ModuleViews.Expression, "Texture/Expression/View/avatar01.png"));</v>
+      </c>
+      <c r="I3" s="1" t="str">
+        <f t="shared" ref="I3:I26" si="3">"var/vault_apk_res/Texture/Expression/View/"&amp;D3&amp;".png"</f>
+        <v>var/vault_apk_res/Texture/Expression/View/avatar01.png</v>
+      </c>
+      <c r="J3" s="1" t="str">
+        <f t="shared" ref="J3:J26" si="4">"var/vault_apk_res/Texture/MessageInbox/View/"&amp;D3&amp;".png"</f>
+        <v>var/vault_apk_res/Texture/MessageInbox/View/avatar01.png</v>
+      </c>
+      <c r="K3" s="1" t="str">
+        <f>"{ ""file"":"""&amp;I3&amp;""", ""md5"":"""" },"</f>
+        <v>{ "file":"var/vault_apk_res/Texture/Expression/View/avatar01.png", "md5":"" },</v>
+      </c>
+      <c r="L3" s="1" t="str">
+        <f>"{ ""file"":"""&amp;J3&amp;""", ""md5"":"""" },"</f>
+        <v>{ "file":"var/vault_apk_res/Texture/MessageInbox/View/avatar01.png", "md5":"" },</v>
+      </c>
     </row>
-    <row r="4" spans="1:20">
+    <row r="4" spans="1:25">
       <c r="A4" s="2">
         <v>2</v>
       </c>
@@ -1830,20 +1961,44 @@
         <v>2</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F4" s="1" t="str">
         <f t="shared" si="0"/>
         <v>avatarConfig.Add("DEFAULT_2.160", 2);</v>
       </c>
+      <c r="G4" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>PortraitIcons.Add("2", SpriteHelper.Instance.LoadTextureFromBuffer(ModuleViews.Expression, this.moduleConfig.GetImagePath(ModuleViews.Expression, "avatar02")));</v>
+      </c>
+      <c r="H4" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>portraitIcons.Add(2, SpriteHelper.Instance.LoadTextureFromBuffer(ModuleViews.Expression, "Texture/Expression/View/avatar02.png"));</v>
+      </c>
+      <c r="I4" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>var/vault_apk_res/Texture/Expression/View/avatar02.png</v>
+      </c>
+      <c r="J4" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>var/vault_apk_res/Texture/MessageInbox/View/avatar02.png</v>
+      </c>
+      <c r="K4" s="1" t="str">
+        <f>"{ ""file"":"""&amp;I4&amp;""", ""md5"":"""" },"</f>
+        <v>{ "file":"var/vault_apk_res/Texture/Expression/View/avatar02.png", "md5":"" },</v>
+      </c>
+      <c r="L4" s="1" t="str">
+        <f>"{ ""file"":"""&amp;J4&amp;""", ""md5"":"""" },"</f>
+        <v>{ "file":"var/vault_apk_res/Texture/MessageInbox/View/avatar02.png", "md5":"" },</v>
+      </c>
     </row>
-    <row r="5" spans="1:20">
+    <row r="5" spans="1:25">
       <c r="A5" s="2">
         <v>3</v>
       </c>
@@ -1851,20 +2006,44 @@
         <v>3</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F5" s="1" t="str">
         <f t="shared" si="0"/>
         <v>avatarConfig.Add("DEFAULT_3.160", 3);</v>
       </c>
+      <c r="G5" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>PortraitIcons.Add("3", SpriteHelper.Instance.LoadTextureFromBuffer(ModuleViews.Expression, this.moduleConfig.GetImagePath(ModuleViews.Expression, "avatar03")));</v>
+      </c>
+      <c r="H5" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>portraitIcons.Add(3, SpriteHelper.Instance.LoadTextureFromBuffer(ModuleViews.Expression, "Texture/Expression/View/avatar03.png"));</v>
+      </c>
+      <c r="I5" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>var/vault_apk_res/Texture/Expression/View/avatar03.png</v>
+      </c>
+      <c r="J5" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>var/vault_apk_res/Texture/MessageInbox/View/avatar03.png</v>
+      </c>
+      <c r="K5" s="1" t="str">
+        <f>"{ ""file"":"""&amp;I5&amp;""", ""md5"":"""" },"</f>
+        <v>{ "file":"var/vault_apk_res/Texture/Expression/View/avatar03.png", "md5":"" },</v>
+      </c>
+      <c r="L5" s="1" t="str">
+        <f>"{ ""file"":"""&amp;J5&amp;""", ""md5"":"""" },"</f>
+        <v>{ "file":"var/vault_apk_res/Texture/MessageInbox/View/avatar03.png", "md5":"" },</v>
+      </c>
     </row>
-    <row r="6" spans="1:20">
+    <row r="6" spans="1:25">
       <c r="A6" s="2">
         <v>4</v>
       </c>
@@ -1872,20 +2051,44 @@
         <v>4</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F6" s="1" t="str">
         <f t="shared" si="0"/>
         <v>avatarConfig.Add("DEFAULT_4.160", 4);</v>
       </c>
+      <c r="G6" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>PortraitIcons.Add("4", SpriteHelper.Instance.LoadTextureFromBuffer(ModuleViews.Expression, this.moduleConfig.GetImagePath(ModuleViews.Expression, "avatar04")));</v>
+      </c>
+      <c r="H6" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>portraitIcons.Add(4, SpriteHelper.Instance.LoadTextureFromBuffer(ModuleViews.Expression, "Texture/Expression/View/avatar04.png"));</v>
+      </c>
+      <c r="I6" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>var/vault_apk_res/Texture/Expression/View/avatar04.png</v>
+      </c>
+      <c r="J6" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>var/vault_apk_res/Texture/MessageInbox/View/avatar04.png</v>
+      </c>
+      <c r="K6" s="1" t="str">
+        <f>"{ ""file"":"""&amp;I6&amp;""", ""md5"":"""" },"</f>
+        <v>{ "file":"var/vault_apk_res/Texture/Expression/View/avatar04.png", "md5":"" },</v>
+      </c>
+      <c r="L6" s="1" t="str">
+        <f>"{ ""file"":"""&amp;J6&amp;""", ""md5"":"""" },"</f>
+        <v>{ "file":"var/vault_apk_res/Texture/MessageInbox/View/avatar04.png", "md5":"" },</v>
+      </c>
     </row>
-    <row r="7" spans="1:20">
+    <row r="7" spans="1:25">
       <c r="A7" s="2">
         <v>5</v>
       </c>
@@ -1893,20 +2096,44 @@
         <v>5</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F7" s="1" t="str">
         <f t="shared" si="0"/>
         <v>avatarConfig.Add("DEFAULT_5.160", 5);</v>
       </c>
+      <c r="G7" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>PortraitIcons.Add("5", SpriteHelper.Instance.LoadTextureFromBuffer(ModuleViews.Expression, this.moduleConfig.GetImagePath(ModuleViews.Expression, "avatar05")));</v>
+      </c>
+      <c r="H7" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>portraitIcons.Add(5, SpriteHelper.Instance.LoadTextureFromBuffer(ModuleViews.Expression, "Texture/Expression/View/avatar05.png"));</v>
+      </c>
+      <c r="I7" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>var/vault_apk_res/Texture/Expression/View/avatar05.png</v>
+      </c>
+      <c r="J7" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>var/vault_apk_res/Texture/MessageInbox/View/avatar05.png</v>
+      </c>
+      <c r="K7" s="1" t="str">
+        <f>"{ ""file"":"""&amp;I7&amp;""", ""md5"":"""" },"</f>
+        <v>{ "file":"var/vault_apk_res/Texture/Expression/View/avatar05.png", "md5":"" },</v>
+      </c>
+      <c r="L7" s="1" t="str">
+        <f>"{ ""file"":"""&amp;J7&amp;""", ""md5"":"""" },"</f>
+        <v>{ "file":"var/vault_apk_res/Texture/MessageInbox/View/avatar05.png", "md5":"" },</v>
+      </c>
     </row>
-    <row r="8" spans="1:20">
+    <row r="8" spans="1:25">
       <c r="A8" s="2">
         <v>6</v>
       </c>
@@ -1914,20 +2141,44 @@
         <v>6</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F8" s="1" t="str">
         <f t="shared" si="0"/>
         <v>avatarConfig.Add("DEFAULT_6.160", 6);</v>
       </c>
+      <c r="G8" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>PortraitIcons.Add("6", SpriteHelper.Instance.LoadTextureFromBuffer(ModuleViews.Expression, this.moduleConfig.GetImagePath(ModuleViews.Expression, "avatar06")));</v>
+      </c>
+      <c r="H8" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>portraitIcons.Add(6, SpriteHelper.Instance.LoadTextureFromBuffer(ModuleViews.Expression, "Texture/Expression/View/avatar06.png"));</v>
+      </c>
+      <c r="I8" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>var/vault_apk_res/Texture/Expression/View/avatar06.png</v>
+      </c>
+      <c r="J8" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>var/vault_apk_res/Texture/MessageInbox/View/avatar06.png</v>
+      </c>
+      <c r="K8" s="1" t="str">
+        <f>"{ ""file"":"""&amp;I8&amp;""", ""md5"":"""" },"</f>
+        <v>{ "file":"var/vault_apk_res/Texture/Expression/View/avatar06.png", "md5":"" },</v>
+      </c>
+      <c r="L8" s="1" t="str">
+        <f>"{ ""file"":"""&amp;J8&amp;""", ""md5"":"""" },"</f>
+        <v>{ "file":"var/vault_apk_res/Texture/MessageInbox/View/avatar06.png", "md5":"" },</v>
+      </c>
     </row>
-    <row r="9" spans="1:20">
+    <row r="9" spans="1:25">
       <c r="A9" s="2">
         <v>7</v>
       </c>
@@ -1935,20 +2186,44 @@
         <v>7</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F9" s="1" t="str">
         <f t="shared" si="0"/>
         <v>avatarConfig.Add("DEFAULT_7.160", 7);</v>
       </c>
+      <c r="G9" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>PortraitIcons.Add("7", SpriteHelper.Instance.LoadTextureFromBuffer(ModuleViews.Expression, this.moduleConfig.GetImagePath(ModuleViews.Expression, "avatar07")));</v>
+      </c>
+      <c r="H9" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>portraitIcons.Add(7, SpriteHelper.Instance.LoadTextureFromBuffer(ModuleViews.Expression, "Texture/Expression/View/avatar07.png"));</v>
+      </c>
+      <c r="I9" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>var/vault_apk_res/Texture/Expression/View/avatar07.png</v>
+      </c>
+      <c r="J9" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>var/vault_apk_res/Texture/MessageInbox/View/avatar07.png</v>
+      </c>
+      <c r="K9" s="1" t="str">
+        <f>"{ ""file"":"""&amp;I9&amp;""", ""md5"":"""" },"</f>
+        <v>{ "file":"var/vault_apk_res/Texture/Expression/View/avatar07.png", "md5":"" },</v>
+      </c>
+      <c r="L9" s="1" t="str">
+        <f>"{ ""file"":"""&amp;J9&amp;""", ""md5"":"""" },"</f>
+        <v>{ "file":"var/vault_apk_res/Texture/MessageInbox/View/avatar07.png", "md5":"" },</v>
+      </c>
     </row>
-    <row r="10" spans="1:20">
+    <row r="10" spans="1:25">
       <c r="A10" s="2">
         <v>8</v>
       </c>
@@ -1956,20 +2231,44 @@
         <v>8</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F10" s="1" t="str">
         <f t="shared" si="0"/>
         <v>avatarConfig.Add("DEFAULT_8.160", 8);</v>
       </c>
+      <c r="G10" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>PortraitIcons.Add("8", SpriteHelper.Instance.LoadTextureFromBuffer(ModuleViews.Expression, this.moduleConfig.GetImagePath(ModuleViews.Expression, "avatar08")));</v>
+      </c>
+      <c r="H10" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>portraitIcons.Add(8, SpriteHelper.Instance.LoadTextureFromBuffer(ModuleViews.Expression, "Texture/Expression/View/avatar08.png"));</v>
+      </c>
+      <c r="I10" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>var/vault_apk_res/Texture/Expression/View/avatar08.png</v>
+      </c>
+      <c r="J10" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>var/vault_apk_res/Texture/MessageInbox/View/avatar08.png</v>
+      </c>
+      <c r="K10" s="1" t="str">
+        <f>"{ ""file"":"""&amp;I10&amp;""", ""md5"":"""" },"</f>
+        <v>{ "file":"var/vault_apk_res/Texture/Expression/View/avatar08.png", "md5":"" },</v>
+      </c>
+      <c r="L10" s="1" t="str">
+        <f>"{ ""file"":"""&amp;J10&amp;""", ""md5"":"""" },"</f>
+        <v>{ "file":"var/vault_apk_res/Texture/MessageInbox/View/avatar08.png", "md5":"" },</v>
+      </c>
     </row>
-    <row r="11" spans="1:20">
+    <row r="11" spans="1:25">
       <c r="A11" s="2">
         <v>9</v>
       </c>
@@ -1977,20 +2276,44 @@
         <v>9</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F11" s="1" t="str">
         <f t="shared" si="0"/>
         <v>avatarConfig.Add("DEFAULT_9.160", 9);</v>
       </c>
+      <c r="G11" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>PortraitIcons.Add("9", SpriteHelper.Instance.LoadTextureFromBuffer(ModuleViews.Expression, this.moduleConfig.GetImagePath(ModuleViews.Expression, "avatar09")));</v>
+      </c>
+      <c r="H11" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>portraitIcons.Add(9, SpriteHelper.Instance.LoadTextureFromBuffer(ModuleViews.Expression, "Texture/Expression/View/avatar09.png"));</v>
+      </c>
+      <c r="I11" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>var/vault_apk_res/Texture/Expression/View/avatar09.png</v>
+      </c>
+      <c r="J11" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>var/vault_apk_res/Texture/MessageInbox/View/avatar09.png</v>
+      </c>
+      <c r="K11" s="1" t="str">
+        <f>"{ ""file"":"""&amp;I11&amp;""", ""md5"":"""" },"</f>
+        <v>{ "file":"var/vault_apk_res/Texture/Expression/View/avatar09.png", "md5":"" },</v>
+      </c>
+      <c r="L11" s="1" t="str">
+        <f>"{ ""file"":"""&amp;J11&amp;""", ""md5"":"""" },"</f>
+        <v>{ "file":"var/vault_apk_res/Texture/MessageInbox/View/avatar09.png", "md5":"" },</v>
+      </c>
     </row>
-    <row r="12" spans="1:20">
+    <row r="12" spans="1:25">
       <c r="A12" s="2">
         <v>10</v>
       </c>
@@ -1998,7 +2321,7 @@
         <v>99</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>28</v>
@@ -2008,8 +2331,32 @@
         <f t="shared" si="0"/>
         <v>avatarConfig.Add("", 99);</v>
       </c>
+      <c r="G12" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>PortraitIcons.Add("10", SpriteHelper.Instance.LoadTextureFromBuffer(ModuleViews.Expression, this.moduleConfig.GetImagePath(ModuleViews.Expression, "avatar_default")));</v>
+      </c>
+      <c r="H12" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>portraitIcons.Add(10, SpriteHelper.Instance.LoadTextureFromBuffer(ModuleViews.Expression, "Texture/Expression/View/avatar_default.png"));</v>
+      </c>
+      <c r="I12" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>var/vault_apk_res/Texture/Expression/View/avatar_default.png</v>
+      </c>
+      <c r="J12" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>var/vault_apk_res/Texture/MessageInbox/View/avatar_default.png</v>
+      </c>
+      <c r="K12" s="1" t="str">
+        <f>"{ ""file"":"""&amp;I12&amp;""", ""md5"":"""" },"</f>
+        <v>{ "file":"var/vault_apk_res/Texture/Expression/View/avatar_default.png", "md5":"" },</v>
+      </c>
+      <c r="L12" s="1" t="str">
+        <f>"{ ""file"":"""&amp;J12&amp;""", ""md5"":"""" },"</f>
+        <v>{ "file":"var/vault_apk_res/Texture/MessageInbox/View/avatar_default.png", "md5":"" },</v>
+      </c>
     </row>
-    <row r="13" spans="1:20" s="4" customFormat="1">
+    <row r="13" spans="1:25" s="4" customFormat="1">
       <c r="A13" s="5">
         <v>11</v>
       </c>
@@ -2023,16 +2370,39 @@
         <v>26</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F13" s="1" t="str">
         <f t="shared" si="0"/>
         <v>avatarConfig.Add("DEFAULT_11.160", 11);</v>
       </c>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
+      <c r="G13" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>PortraitIcons.Add("11", SpriteHelper.Instance.LoadTextureFromBuffer(ModuleViews.Expression, this.moduleConfig.GetImagePath(ModuleViews.Expression, "avatar11")));</v>
+      </c>
+      <c r="H13" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>portraitIcons.Add(11, SpriteHelper.Instance.LoadTextureFromBuffer(ModuleViews.Expression, "Texture/Expression/View/avatar11.png"));</v>
+      </c>
+      <c r="I13" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>var/vault_apk_res/Texture/Expression/View/avatar11.png</v>
+      </c>
+      <c r="J13" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>var/vault_apk_res/Texture/MessageInbox/View/avatar11.png</v>
+      </c>
+      <c r="K13" s="1" t="str">
+        <f>"{ ""file"":"""&amp;I13&amp;""", ""md5"":"""" },"</f>
+        <v>{ "file":"var/vault_apk_res/Texture/Expression/View/avatar11.png", "md5":"" },</v>
+      </c>
+      <c r="L13" s="1" t="str">
+        <f>"{ ""file"":"""&amp;J13&amp;""", ""md5"":"""" },"</f>
+        <v>{ "file":"var/vault_apk_res/Texture/MessageInbox/View/avatar11.png", "md5":"" },</v>
+      </c>
+      <c r="M13" s="1"/>
     </row>
-    <row r="14" spans="1:20" s="4" customFormat="1">
+    <row r="14" spans="1:25" s="4" customFormat="1">
       <c r="A14" s="5">
         <v>12</v>
       </c>
@@ -2046,16 +2416,39 @@
         <v>24</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F14" s="1" t="str">
         <f t="shared" si="0"/>
         <v>avatarConfig.Add("DEFAULT_12.160", 12);</v>
       </c>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
+      <c r="G14" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>PortraitIcons.Add("12", SpriteHelper.Instance.LoadTextureFromBuffer(ModuleViews.Expression, this.moduleConfig.GetImagePath(ModuleViews.Expression, "avatar12")));</v>
+      </c>
+      <c r="H14" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>portraitIcons.Add(12, SpriteHelper.Instance.LoadTextureFromBuffer(ModuleViews.Expression, "Texture/Expression/View/avatar12.png"));</v>
+      </c>
+      <c r="I14" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>var/vault_apk_res/Texture/Expression/View/avatar12.png</v>
+      </c>
+      <c r="J14" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>var/vault_apk_res/Texture/MessageInbox/View/avatar12.png</v>
+      </c>
+      <c r="K14" s="1" t="str">
+        <f>"{ ""file"":"""&amp;I14&amp;""", ""md5"":"""" },"</f>
+        <v>{ "file":"var/vault_apk_res/Texture/Expression/View/avatar12.png", "md5":"" },</v>
+      </c>
+      <c r="L14" s="1" t="str">
+        <f>"{ ""file"":"""&amp;J14&amp;""", ""md5"":"""" },"</f>
+        <v>{ "file":"var/vault_apk_res/Texture/MessageInbox/View/avatar12.png", "md5":"" },</v>
+      </c>
+      <c r="M14" s="1"/>
     </row>
-    <row r="15" spans="1:20" s="4" customFormat="1">
+    <row r="15" spans="1:25" s="4" customFormat="1">
       <c r="A15" s="5">
         <v>13</v>
       </c>
@@ -2069,16 +2462,39 @@
         <v>22</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F15" s="1" t="str">
         <f t="shared" si="0"/>
         <v>avatarConfig.Add("DEFAULT_13.160", 13);</v>
       </c>
-      <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
+      <c r="G15" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>PortraitIcons.Add("13", SpriteHelper.Instance.LoadTextureFromBuffer(ModuleViews.Expression, this.moduleConfig.GetImagePath(ModuleViews.Expression, "avatar13")));</v>
+      </c>
+      <c r="H15" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>portraitIcons.Add(13, SpriteHelper.Instance.LoadTextureFromBuffer(ModuleViews.Expression, "Texture/Expression/View/avatar13.png"));</v>
+      </c>
+      <c r="I15" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>var/vault_apk_res/Texture/Expression/View/avatar13.png</v>
+      </c>
+      <c r="J15" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>var/vault_apk_res/Texture/MessageInbox/View/avatar13.png</v>
+      </c>
+      <c r="K15" s="1" t="str">
+        <f>"{ ""file"":"""&amp;I15&amp;""", ""md5"":"""" },"</f>
+        <v>{ "file":"var/vault_apk_res/Texture/Expression/View/avatar13.png", "md5":"" },</v>
+      </c>
+      <c r="L15" s="1" t="str">
+        <f>"{ ""file"":"""&amp;J15&amp;""", ""md5"":"""" },"</f>
+        <v>{ "file":"var/vault_apk_res/Texture/MessageInbox/View/avatar13.png", "md5":"" },</v>
+      </c>
+      <c r="M15" s="1"/>
     </row>
-    <row r="16" spans="1:20" s="4" customFormat="1">
+    <row r="16" spans="1:25" s="4" customFormat="1">
       <c r="A16" s="5">
         <v>14</v>
       </c>
@@ -2092,16 +2508,39 @@
         <v>20</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F16" s="1" t="str">
         <f t="shared" si="0"/>
         <v>avatarConfig.Add("DEFAULT_14.160", 14);</v>
       </c>
-      <c r="G16" s="1"/>
-      <c r="H16" s="1"/>
+      <c r="G16" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>PortraitIcons.Add("14", SpriteHelper.Instance.LoadTextureFromBuffer(ModuleViews.Expression, this.moduleConfig.GetImagePath(ModuleViews.Expression, "avatar14")));</v>
+      </c>
+      <c r="H16" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>portraitIcons.Add(14, SpriteHelper.Instance.LoadTextureFromBuffer(ModuleViews.Expression, "Texture/Expression/View/avatar14.png"));</v>
+      </c>
+      <c r="I16" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>var/vault_apk_res/Texture/Expression/View/avatar14.png</v>
+      </c>
+      <c r="J16" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>var/vault_apk_res/Texture/MessageInbox/View/avatar14.png</v>
+      </c>
+      <c r="K16" s="1" t="str">
+        <f>"{ ""file"":"""&amp;I16&amp;""", ""md5"":"""" },"</f>
+        <v>{ "file":"var/vault_apk_res/Texture/Expression/View/avatar14.png", "md5":"" },</v>
+      </c>
+      <c r="L16" s="1" t="str">
+        <f>"{ ""file"":"""&amp;J16&amp;""", ""md5"":"""" },"</f>
+        <v>{ "file":"var/vault_apk_res/Texture/MessageInbox/View/avatar14.png", "md5":"" },</v>
+      </c>
+      <c r="M16" s="1"/>
     </row>
-    <row r="17" spans="1:22" s="4" customFormat="1">
+    <row r="17" spans="1:27" s="4" customFormat="1">
       <c r="A17" s="5">
         <v>15</v>
       </c>
@@ -2115,16 +2554,39 @@
         <v>18</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F17" s="1" t="str">
         <f t="shared" si="0"/>
         <v>avatarConfig.Add("DEFAULT_15.160", 15);</v>
       </c>
-      <c r="G17" s="1"/>
-      <c r="H17" s="1"/>
+      <c r="G17" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>PortraitIcons.Add("15", SpriteHelper.Instance.LoadTextureFromBuffer(ModuleViews.Expression, this.moduleConfig.GetImagePath(ModuleViews.Expression, "avatar15")));</v>
+      </c>
+      <c r="H17" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>portraitIcons.Add(15, SpriteHelper.Instance.LoadTextureFromBuffer(ModuleViews.Expression, "Texture/Expression/View/avatar15.png"));</v>
+      </c>
+      <c r="I17" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>var/vault_apk_res/Texture/Expression/View/avatar15.png</v>
+      </c>
+      <c r="J17" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>var/vault_apk_res/Texture/MessageInbox/View/avatar15.png</v>
+      </c>
+      <c r="K17" s="1" t="str">
+        <f>"{ ""file"":"""&amp;I17&amp;""", ""md5"":"""" },"</f>
+        <v>{ "file":"var/vault_apk_res/Texture/Expression/View/avatar15.png", "md5":"" },</v>
+      </c>
+      <c r="L17" s="1" t="str">
+        <f>"{ ""file"":"""&amp;J17&amp;""", ""md5"":"""" },"</f>
+        <v>{ "file":"var/vault_apk_res/Texture/MessageInbox/View/avatar15.png", "md5":"" },</v>
+      </c>
+      <c r="M17" s="1"/>
     </row>
-    <row r="18" spans="1:22" s="4" customFormat="1">
+    <row r="18" spans="1:27" s="4" customFormat="1">
       <c r="A18" s="5">
         <v>16</v>
       </c>
@@ -2138,16 +2600,39 @@
         <v>16</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F18" s="1" t="str">
         <f t="shared" si="0"/>
         <v>avatarConfig.Add("DEFAULT_16.160", 16);</v>
       </c>
-      <c r="G18" s="1"/>
-      <c r="H18" s="1"/>
+      <c r="G18" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>PortraitIcons.Add("16", SpriteHelper.Instance.LoadTextureFromBuffer(ModuleViews.Expression, this.moduleConfig.GetImagePath(ModuleViews.Expression, "avatar16")));</v>
+      </c>
+      <c r="H18" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>portraitIcons.Add(16, SpriteHelper.Instance.LoadTextureFromBuffer(ModuleViews.Expression, "Texture/Expression/View/avatar16.png"));</v>
+      </c>
+      <c r="I18" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>var/vault_apk_res/Texture/Expression/View/avatar16.png</v>
+      </c>
+      <c r="J18" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>var/vault_apk_res/Texture/MessageInbox/View/avatar16.png</v>
+      </c>
+      <c r="K18" s="1" t="str">
+        <f>"{ ""file"":"""&amp;I18&amp;""", ""md5"":"""" },"</f>
+        <v>{ "file":"var/vault_apk_res/Texture/Expression/View/avatar16.png", "md5":"" },</v>
+      </c>
+      <c r="L18" s="1" t="str">
+        <f>"{ ""file"":"""&amp;J18&amp;""", ""md5"":"""" },"</f>
+        <v>{ "file":"var/vault_apk_res/Texture/MessageInbox/View/avatar16.png", "md5":"" },</v>
+      </c>
+      <c r="M18" s="1"/>
     </row>
-    <row r="19" spans="1:22" s="4" customFormat="1">
+    <row r="19" spans="1:27" s="4" customFormat="1">
       <c r="A19" s="5">
         <v>17</v>
       </c>
@@ -2161,16 +2646,39 @@
         <v>14</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F19" s="1" t="str">
         <f t="shared" si="0"/>
         <v>avatarConfig.Add("DEFAULT_17.160", 17);</v>
       </c>
-      <c r="G19" s="1"/>
-      <c r="H19" s="1"/>
+      <c r="G19" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>PortraitIcons.Add("17", SpriteHelper.Instance.LoadTextureFromBuffer(ModuleViews.Expression, this.moduleConfig.GetImagePath(ModuleViews.Expression, "avatar17")));</v>
+      </c>
+      <c r="H19" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>portraitIcons.Add(17, SpriteHelper.Instance.LoadTextureFromBuffer(ModuleViews.Expression, "Texture/Expression/View/avatar17.png"));</v>
+      </c>
+      <c r="I19" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>var/vault_apk_res/Texture/Expression/View/avatar17.png</v>
+      </c>
+      <c r="J19" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>var/vault_apk_res/Texture/MessageInbox/View/avatar17.png</v>
+      </c>
+      <c r="K19" s="1" t="str">
+        <f>"{ ""file"":"""&amp;I19&amp;""", ""md5"":"""" },"</f>
+        <v>{ "file":"var/vault_apk_res/Texture/Expression/View/avatar17.png", "md5":"" },</v>
+      </c>
+      <c r="L19" s="1" t="str">
+        <f>"{ ""file"":"""&amp;J19&amp;""", ""md5"":"""" },"</f>
+        <v>{ "file":"var/vault_apk_res/Texture/MessageInbox/View/avatar17.png", "md5":"" },</v>
+      </c>
+      <c r="M19" s="1"/>
     </row>
-    <row r="20" spans="1:22" s="4" customFormat="1">
+    <row r="20" spans="1:27" s="4" customFormat="1">
       <c r="A20" s="5">
         <v>18</v>
       </c>
@@ -2184,16 +2692,39 @@
         <v>12</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F20" s="1" t="str">
         <f t="shared" si="0"/>
         <v>avatarConfig.Add("DEFAULT_18.160", 18);</v>
       </c>
-      <c r="G20" s="1"/>
-      <c r="H20" s="1"/>
+      <c r="G20" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>PortraitIcons.Add("18", SpriteHelper.Instance.LoadTextureFromBuffer(ModuleViews.Expression, this.moduleConfig.GetImagePath(ModuleViews.Expression, "avatar18")));</v>
+      </c>
+      <c r="H20" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>portraitIcons.Add(18, SpriteHelper.Instance.LoadTextureFromBuffer(ModuleViews.Expression, "Texture/Expression/View/avatar18.png"));</v>
+      </c>
+      <c r="I20" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>var/vault_apk_res/Texture/Expression/View/avatar18.png</v>
+      </c>
+      <c r="J20" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>var/vault_apk_res/Texture/MessageInbox/View/avatar18.png</v>
+      </c>
+      <c r="K20" s="1" t="str">
+        <f>"{ ""file"":"""&amp;I20&amp;""", ""md5"":"""" },"</f>
+        <v>{ "file":"var/vault_apk_res/Texture/Expression/View/avatar18.png", "md5":"" },</v>
+      </c>
+      <c r="L20" s="1" t="str">
+        <f>"{ ""file"":"""&amp;J20&amp;""", ""md5"":"""" },"</f>
+        <v>{ "file":"var/vault_apk_res/Texture/MessageInbox/View/avatar18.png", "md5":"" },</v>
+      </c>
+      <c r="M20" s="1"/>
     </row>
-    <row r="21" spans="1:22" s="4" customFormat="1">
+    <row r="21" spans="1:27" s="4" customFormat="1">
       <c r="A21" s="5">
         <v>19</v>
       </c>
@@ -2207,16 +2738,39 @@
         <v>10</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F21" s="1" t="str">
         <f t="shared" si="0"/>
         <v>avatarConfig.Add("DEFAULT_19.160", 19);</v>
       </c>
-      <c r="G21" s="1"/>
-      <c r="H21" s="1"/>
+      <c r="G21" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>PortraitIcons.Add("19", SpriteHelper.Instance.LoadTextureFromBuffer(ModuleViews.Expression, this.moduleConfig.GetImagePath(ModuleViews.Expression, "avatar19")));</v>
+      </c>
+      <c r="H21" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>portraitIcons.Add(19, SpriteHelper.Instance.LoadTextureFromBuffer(ModuleViews.Expression, "Texture/Expression/View/avatar19.png"));</v>
+      </c>
+      <c r="I21" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>var/vault_apk_res/Texture/Expression/View/avatar19.png</v>
+      </c>
+      <c r="J21" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>var/vault_apk_res/Texture/MessageInbox/View/avatar19.png</v>
+      </c>
+      <c r="K21" s="1" t="str">
+        <f>"{ ""file"":"""&amp;I21&amp;""", ""md5"":"""" },"</f>
+        <v>{ "file":"var/vault_apk_res/Texture/Expression/View/avatar19.png", "md5":"" },</v>
+      </c>
+      <c r="L21" s="1" t="str">
+        <f>"{ ""file"":"""&amp;J21&amp;""", ""md5"":"""" },"</f>
+        <v>{ "file":"var/vault_apk_res/Texture/MessageInbox/View/avatar19.png", "md5":"" },</v>
+      </c>
+      <c r="M21" s="1"/>
     </row>
-    <row r="22" spans="1:22" s="4" customFormat="1">
+    <row r="22" spans="1:27" s="4" customFormat="1">
       <c r="A22" s="5">
         <v>20</v>
       </c>
@@ -2230,16 +2784,39 @@
         <v>8</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F22" s="1" t="str">
         <f t="shared" si="0"/>
         <v>avatarConfig.Add("DEFAULT_20.160", 20);</v>
       </c>
-      <c r="G22" s="1"/>
-      <c r="H22" s="1"/>
+      <c r="G22" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>PortraitIcons.Add("20", SpriteHelper.Instance.LoadTextureFromBuffer(ModuleViews.Expression, this.moduleConfig.GetImagePath(ModuleViews.Expression, "avatar20")));</v>
+      </c>
+      <c r="H22" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>portraitIcons.Add(20, SpriteHelper.Instance.LoadTextureFromBuffer(ModuleViews.Expression, "Texture/Expression/View/avatar20.png"));</v>
+      </c>
+      <c r="I22" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>var/vault_apk_res/Texture/Expression/View/avatar20.png</v>
+      </c>
+      <c r="J22" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>var/vault_apk_res/Texture/MessageInbox/View/avatar20.png</v>
+      </c>
+      <c r="K22" s="1" t="str">
+        <f>"{ ""file"":"""&amp;I22&amp;""", ""md5"":"""" },"</f>
+        <v>{ "file":"var/vault_apk_res/Texture/Expression/View/avatar20.png", "md5":"" },</v>
+      </c>
+      <c r="L22" s="1" t="str">
+        <f>"{ ""file"":"""&amp;J22&amp;""", ""md5"":"""" },"</f>
+        <v>{ "file":"var/vault_apk_res/Texture/MessageInbox/View/avatar20.png", "md5":"" },</v>
+      </c>
+      <c r="M22" s="1"/>
     </row>
-    <row r="23" spans="1:22">
+    <row r="23" spans="1:27">
       <c r="A23" s="5">
         <v>21</v>
       </c>
@@ -2253,14 +2830,38 @@
         <v>6</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F23" s="1" t="str">
         <f t="shared" si="0"/>
         <v>avatarConfig.Add("DEFAULT_21.160", 21);</v>
       </c>
+      <c r="G23" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>PortraitIcons.Add("21", SpriteHelper.Instance.LoadTextureFromBuffer(ModuleViews.Expression, this.moduleConfig.GetImagePath(ModuleViews.Expression, "avatar21")));</v>
+      </c>
+      <c r="H23" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>portraitIcons.Add(21, SpriteHelper.Instance.LoadTextureFromBuffer(ModuleViews.Expression, "Texture/Expression/View/avatar21.png"));</v>
+      </c>
+      <c r="I23" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>var/vault_apk_res/Texture/Expression/View/avatar21.png</v>
+      </c>
+      <c r="J23" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>var/vault_apk_res/Texture/MessageInbox/View/avatar21.png</v>
+      </c>
+      <c r="K23" s="1" t="str">
+        <f>"{ ""file"":"""&amp;I23&amp;""", ""md5"":"""" },"</f>
+        <v>{ "file":"var/vault_apk_res/Texture/Expression/View/avatar21.png", "md5":"" },</v>
+      </c>
+      <c r="L23" s="1" t="str">
+        <f>"{ ""file"":"""&amp;J23&amp;""", ""md5"":"""" },"</f>
+        <v>{ "file":"var/vault_apk_res/Texture/MessageInbox/View/avatar21.png", "md5":"" },</v>
+      </c>
     </row>
-    <row r="24" spans="1:22">
+    <row r="24" spans="1:27">
       <c r="A24" s="5">
         <v>22</v>
       </c>
@@ -2274,14 +2875,38 @@
         <v>4</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F24" s="1" t="str">
         <f t="shared" si="0"/>
         <v>avatarConfig.Add("DEFAULT_22.160", 22);</v>
       </c>
+      <c r="G24" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>PortraitIcons.Add("22", SpriteHelper.Instance.LoadTextureFromBuffer(ModuleViews.Expression, this.moduleConfig.GetImagePath(ModuleViews.Expression, "avatar22")));</v>
+      </c>
+      <c r="H24" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>portraitIcons.Add(22, SpriteHelper.Instance.LoadTextureFromBuffer(ModuleViews.Expression, "Texture/Expression/View/avatar22.png"));</v>
+      </c>
+      <c r="I24" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>var/vault_apk_res/Texture/Expression/View/avatar22.png</v>
+      </c>
+      <c r="J24" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>var/vault_apk_res/Texture/MessageInbox/View/avatar22.png</v>
+      </c>
+      <c r="K24" s="1" t="str">
+        <f>"{ ""file"":"""&amp;I24&amp;""", ""md5"":"""" },"</f>
+        <v>{ "file":"var/vault_apk_res/Texture/Expression/View/avatar22.png", "md5":"" },</v>
+      </c>
+      <c r="L24" s="1" t="str">
+        <f>"{ ""file"":"""&amp;J24&amp;""", ""md5"":"""" },"</f>
+        <v>{ "file":"var/vault_apk_res/Texture/MessageInbox/View/avatar22.png", "md5":"" },</v>
+      </c>
     </row>
-    <row r="25" spans="1:22">
+    <row r="25" spans="1:27">
       <c r="A25" s="5">
         <v>23</v>
       </c>
@@ -2295,14 +2920,38 @@
         <v>2</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F25" s="1" t="str">
         <f t="shared" si="0"/>
         <v>avatarConfig.Add("DEFAULT_23.160", 23);</v>
       </c>
+      <c r="G25" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>PortraitIcons.Add("23", SpriteHelper.Instance.LoadTextureFromBuffer(ModuleViews.Expression, this.moduleConfig.GetImagePath(ModuleViews.Expression, "avatar23")));</v>
+      </c>
+      <c r="H25" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>portraitIcons.Add(23, SpriteHelper.Instance.LoadTextureFromBuffer(ModuleViews.Expression, "Texture/Expression/View/avatar23.png"));</v>
+      </c>
+      <c r="I25" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>var/vault_apk_res/Texture/Expression/View/avatar23.png</v>
+      </c>
+      <c r="J25" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>var/vault_apk_res/Texture/MessageInbox/View/avatar23.png</v>
+      </c>
+      <c r="K25" s="1" t="str">
+        <f>"{ ""file"":"""&amp;I25&amp;""", ""md5"":"""" },"</f>
+        <v>{ "file":"var/vault_apk_res/Texture/Expression/View/avatar23.png", "md5":"" },</v>
+      </c>
+      <c r="L25" s="1" t="str">
+        <f>"{ ""file"":"""&amp;J25&amp;""", ""md5"":"""" },"</f>
+        <v>{ "file":"var/vault_apk_res/Texture/MessageInbox/View/avatar23.png", "md5":"" },</v>
+      </c>
     </row>
-    <row r="26" spans="1:22">
+    <row r="26" spans="1:27">
       <c r="A26" s="5">
         <v>24</v>
       </c>
@@ -2316,27 +2965,51 @@
         <v>0</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F26" s="1" t="str">
         <f t="shared" si="0"/>
         <v>avatarConfig.Add("DEFAULT_24.160", 24);</v>
       </c>
+      <c r="G26" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>PortraitIcons.Add("24", SpriteHelper.Instance.LoadTextureFromBuffer(ModuleViews.Expression, this.moduleConfig.GetImagePath(ModuleViews.Expression, "avatar24")));</v>
+      </c>
+      <c r="H26" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>portraitIcons.Add(24, SpriteHelper.Instance.LoadTextureFromBuffer(ModuleViews.Expression, "Texture/Expression/View/avatar24.png"));</v>
+      </c>
+      <c r="I26" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>var/vault_apk_res/Texture/Expression/View/avatar24.png</v>
+      </c>
+      <c r="J26" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>var/vault_apk_res/Texture/MessageInbox/View/avatar24.png</v>
+      </c>
+      <c r="K26" s="1" t="str">
+        <f>"{ ""file"":"""&amp;I26&amp;""", ""md5"":"""" },"</f>
+        <v>{ "file":"var/vault_apk_res/Texture/Expression/View/avatar24.png", "md5":"" },</v>
+      </c>
+      <c r="L26" s="1" t="str">
+        <f>"{ ""file"":"""&amp;J26&amp;""", ""md5"":"""" },"</f>
+        <v>{ "file":"var/vault_apk_res/Texture/MessageInbox/View/avatar24.png", "md5":"" },</v>
+      </c>
     </row>
-    <row r="27" spans="1:22">
+    <row r="27" spans="1:27">
       <c r="A27" s="2"/>
       <c r="B27" s="2"/>
     </row>
-    <row r="28" spans="1:22">
+    <row r="28" spans="1:27">
       <c r="A28" s="2"/>
       <c r="B28" s="2"/>
     </row>
-    <row r="31" spans="1:22">
-      <c r="I31" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="V31" s="6" t="s">
-        <v>57</v>
+    <row r="31" spans="1:27">
+      <c r="N31" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="AA31" s="6" t="s">
+        <v>56</v>
       </c>
     </row>
   </sheetData>
